--- a/biology/Botanique/Agyrium/Agyrium.xlsx
+++ b/biology/Botanique/Agyrium/Agyrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agyrium est un genre de champignons dans la classe des Lecanoromycetes. L'ordre des Agyriales, monotypique, ne comporte que la famille des Agyriaceae dont Agyrium est le seul genre[1]. Celui-ci ne comporte que trois espèces, essentiellement représentés dans les régions tempérées[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agyrium est un genre de champignons dans la classe des Lecanoromycetes. L'ordre des Agyriales, monotypique, ne comporte que la famille des Agyriaceae dont Agyrium est le seul genre. Celui-ci ne comporte que trois espèces, essentiellement représentés dans les régions tempérées.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1990, sur la base de caractères anatomiques, l'ordre des Agyriales comportait deux familles, essentiellement composées de lichens, la famille des Agyriaceae comptant à elle seule 16 genres, dont Agyrium[3]. En 2007, une étude faisant appel à des caractères moléculaires a montré que cet arrangement ne pouvait rendre compte des parentés véritables[4]. Elle a conduit à rattacher la seconde famille (Anamylopsoraceae) à l'ordre des Baeomycetales et à ressusciter la famille des Trapeliaceae — également placée dans les Baeomycetales — où ont été versés 13 des 15 genres lichénisés des anciens Agyriaceae ; les deux autres ont été rattachés l'un aux Baeomycetaceae, l'autre aux Ostropomycetidae incertae sedis, l'ordre des Agyriales se retrouvant désormais réduit au seul genre Agyrium[1].
-Il est intéressant de constater que l'ordre des Agyriales a été rétabli en 2001[5], et confirmé la même année[6] à partir de données moléculaires concernant des taxons appartenant aujourd'hui, sans exception, à un ordre différent (Baeomycetales). Il est toutefois conservé dans les classifications récentes[7],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1990, sur la base de caractères anatomiques, l'ordre des Agyriales comportait deux familles, essentiellement composées de lichens, la famille des Agyriaceae comptant à elle seule 16 genres, dont Agyrium. En 2007, une étude faisant appel à des caractères moléculaires a montré que cet arrangement ne pouvait rendre compte des parentés véritables. Elle a conduit à rattacher la seconde famille (Anamylopsoraceae) à l'ordre des Baeomycetales et à ressusciter la famille des Trapeliaceae — également placée dans les Baeomycetales — où ont été versés 13 des 15 genres lichénisés des anciens Agyriaceae ; les deux autres ont été rattachés l'un aux Baeomycetaceae, l'autre aux Ostropomycetidae incertae sedis, l'ordre des Agyriales se retrouvant désormais réduit au seul genre Agyrium.
+Il est intéressant de constater que l'ordre des Agyriales a été rétabli en 2001, et confirmé la même année à partir de données moléculaires concernant des taxons appartenant aujourd'hui, sans exception, à un ordre différent (Baeomycetales). Il est toutefois conservé dans les classifications récentes,.
 </t>
         </is>
       </c>
